--- a/report/Ke_hoach_cong_viec.xlsx
+++ b/report/Ke_hoach_cong_viec.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\LV_TranHuuHoa_B2016966\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -102,13 +102,7 @@
     <t>Thiết kế phụ trợ tài liệu và API</t>
   </si>
   <si>
-    <t>Thiết kế và triển khai đăng ký và đăng nhập người dùng (FE)</t>
-  </si>
-  <si>
     <t>Bắt đầu phát triển frontend, thiết lập dự án</t>
-  </si>
-  <si>
-    <t>Triển khai quản lý hồ sơ và truy cập dựa trên vai trò (FE)</t>
   </si>
   <si>
     <t>Kiểm tra, gỡ lỗi và tinh chỉnh các chức năng của giao diện người dùng</t>
@@ -127,6 +121,12 @@
   <si>
     <t xml:space="preserve">
 Xem xét, hoàn thiện và gửi báo cáo</t>
+  </si>
+  <si>
+    <t>Hoàn thành tất các chức năng của khách hàng và nhà cung cấp: Upload sản phẩm, Cập nhật thông tin,Đơn đặt hàng,…</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện và các chức năng của admin, thực hiện chức năng gợi ý sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -505,12 +505,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="105" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -591,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -599,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -631,7 +633,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -639,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -647,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/report/Ke_hoach_cong_viec.xlsx
+++ b/report/Ke_hoach_cong_viec.xlsx
@@ -123,10 +123,10 @@
 Xem xét, hoàn thiện và gửi báo cáo</t>
   </si>
   <si>
-    <t>Hoàn thành tất các chức năng của khách hàng và nhà cung cấp: Upload sản phẩm, Cập nhật thông tin,Đơn đặt hàng,…</t>
-  </si>
-  <si>
     <t>Thiết kế giao diện và các chức năng của admin, thực hiện chức năng gợi ý sản phẩm</t>
+  </si>
+  <si>
+    <t>Hoàn thành tất các chức năng của khách hàng, nhà cung cấp: Upload sản phẩm, Cập nhật thông tin,Đơn đặt hàng,…Thiết kế các chức năng của Admin</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/report/Ke_hoach_cong_viec.xlsx
+++ b/report/Ke_hoach_cong_viec.xlsx
@@ -506,13 +506,13 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
